--- a/individual_results/avey/399.xlsx
+++ b/individual_results/avey/399.xlsx
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>0.4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
         <v>0.5</v>
@@ -585,7 +585,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N2" t="n">
         <v>0.3333333333333333</v>
@@ -597,13 +597,13 @@
         <v>0.15625</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>1.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.5</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0.5</v>
@@ -670,13 +670,13 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0.5</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -700,19 +700,25 @@
       <c r="B4" t="n">
         <v>1.2</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.5714285714285715</v>
+      </c>
       <c r="D4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>0.5714285714285715</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.8</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.8</v>
+      </c>
       <c r="J4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -722,7 +728,9 @@
       <c r="L4" t="n">
         <v>0.4444444444444445</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N4" t="n">
         <v>0.4</v>
       </c>
@@ -732,17 +740,23 @@
       <c r="P4" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.5714285714285715</v>
+      </c>
       <c r="R4" t="n">
         <v>1</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>0.5</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -753,19 +767,25 @@
       <c r="B5" t="n">
         <v>1.363636363636364</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.7692307692307692</v>
+      </c>
       <c r="D5" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="E5" t="n">
         <v>0.7692307692307692</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.9090909090909091</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.9090909090909091</v>
+      </c>
       <c r="J5" t="n">
         <v>0.8333333333333334</v>
       </c>
@@ -775,7 +795,9 @@
       <c r="L5" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.7142857142857143</v>
+      </c>
       <c r="N5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -785,17 +807,23 @@
       <c r="P5" t="n">
         <v>0.625</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>0.7692307692307692</v>
+      </c>
       <c r="R5" t="n">
         <v>1</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>0.5</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -807,7 +835,7 @@
         <v>1.76064801430716</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9639404333166532</v>
       </c>
       <c r="D6" t="n">
         <v>0.8262346571285599</v>
@@ -816,7 +844,7 @@
         <v>0.9327783893101107</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.944847956559586</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -825,7 +853,7 @@
         <v>0.7967075809905066</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.7967075809905066</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -837,7 +865,7 @@
         <v>0.9327783893101107</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.9639404333166532</v>
       </c>
       <c r="N6" t="n">
         <v>0.2754115523761866</v>
@@ -849,13 +877,13 @@
         <v>1.376728465535042</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.5296052411645183</v>
       </c>
       <c r="R6" t="n">
         <v>0.7967075809905066</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -867,7 +895,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>0.8262346571285599</v>
       </c>
     </row>
     <row r="7">
@@ -880,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -889,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -910,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -940,7 +968,7 @@
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -953,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -962,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -971,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -983,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1001,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="S8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -1013,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1026,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1035,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1044,7 +1072,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1056,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1068,13 +1096,13 @@
         <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="b">
         <v>1</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1086,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1098,19 +1126,25 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="n">
         <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
@@ -1120,7 +1154,9 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>1</v>
@@ -1128,17 +1164,23 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="n">
         <v>2</v>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">

--- a/individual_results/avey/399.xlsx
+++ b/individual_results/avey/399.xlsx
@@ -558,7 +558,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.4</v>
@@ -591,10 +591,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="P2" t="n">
-        <v>0.15625</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="Q2" t="n">
         <v>0.4</v>
@@ -625,13 +625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -664,10 +664,10 @@
         <v>0.5</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
@@ -698,14 +698,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.2</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4" t="n">
         <v>0.5714285714285715</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>0.5714285714285715</v>
       </c>
@@ -735,10 +733,10 @@
         <v>0.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.142857142857143</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.125</v>
       </c>
       <c r="Q4" t="n">
         <v>0.5714285714285715</v>
@@ -765,14 +763,12 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.363636363636364</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5" t="n">
         <v>0.7692307692307692</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.5555555555555556</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0.7692307692307692</v>
       </c>
@@ -802,10 +798,10 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="O5" t="n">
-        <v>1.538461538461538</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="P5" t="n">
-        <v>0.625</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="Q5" t="n">
         <v>0.7692307692307692</v>
@@ -832,13 +828,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.76064801430716</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="C6" t="n">
         <v>0.9639404333166532</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0.9327783893101107</v>
@@ -871,10 +867,10 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="O6" t="n">
-        <v>1.603849761361999</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>1.376728465535042</v>
+        <v>0.9058464496821221</v>
       </c>
       <c r="Q6" t="n">
         <v>0.5296052411645183</v>
@@ -911,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -984,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1057,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1129,9 +1125,7 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>1</v>
       </c>
@@ -1189,7 +1183,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
         <v>2.5</v>
@@ -1228,10 +1222,10 @@
         <v>1.5</v>
       </c>
       <c r="O11" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="n">
         <v>2.5</v>
